--- a/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-Met.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Hgf-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H2">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J2">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N2">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O2">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P2">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q2">
-        <v>21.25990545547005</v>
+        <v>0.3447752577682222</v>
       </c>
       <c r="R2">
-        <v>21.25990545547005</v>
+        <v>3.102977319914</v>
       </c>
       <c r="S2">
-        <v>0.03575328159434871</v>
+        <v>0.0003253243499325175</v>
       </c>
       <c r="T2">
-        <v>0.03575328159434871</v>
+        <v>0.0003253243499325176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H3">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J3">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N3">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O3">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P3">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q3">
-        <v>12.56192386904324</v>
+        <v>0.1025401355996667</v>
       </c>
       <c r="R3">
-        <v>12.56192386904324</v>
+        <v>0.922861220397</v>
       </c>
       <c r="S3">
-        <v>0.02112568197433422</v>
+        <v>9.675521141479202E-05</v>
       </c>
       <c r="T3">
-        <v>0.02112568197433422</v>
+        <v>9.675521141479204E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H4">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J4">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N4">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O4">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P4">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q4">
-        <v>18.46677218157294</v>
+        <v>0.156960621971</v>
       </c>
       <c r="R4">
-        <v>18.46677218157294</v>
+        <v>1.412645597739</v>
       </c>
       <c r="S4">
-        <v>0.03105600386273516</v>
+        <v>0.0001481055010683126</v>
       </c>
       <c r="T4">
-        <v>0.03105600386273516</v>
+        <v>0.0001481055010683126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>14.6418778266445</v>
+        <v>0.1088396666666667</v>
       </c>
       <c r="H5">
-        <v>14.6418778266445</v>
+        <v>0.326519</v>
       </c>
       <c r="I5">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="J5">
-        <v>0.3979075416502982</v>
+        <v>0.002750770615347974</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N5">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O5">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P5">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q5">
-        <v>184.3183989780592</v>
+        <v>2.310961187669667</v>
       </c>
       <c r="R5">
-        <v>184.3183989780592</v>
+        <v>20.798650689027</v>
       </c>
       <c r="S5">
-        <v>0.3099725742188801</v>
+        <v>0.002180585552932351</v>
       </c>
       <c r="T5">
-        <v>0.3099725742188801</v>
+        <v>0.002180585552932352</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H6">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J6">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N6">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O6">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P6">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q6">
-        <v>31.55056362919253</v>
+        <v>47.75105484349778</v>
       </c>
       <c r="R6">
-        <v>31.55056362919253</v>
+        <v>429.75949359148</v>
       </c>
       <c r="S6">
-        <v>0.05305932278286307</v>
+        <v>0.04505712206876557</v>
       </c>
       <c r="T6">
-        <v>0.05305932278286307</v>
+        <v>0.04505712206876558</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H7">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J7">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N7">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O7">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P7">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q7">
-        <v>18.64240549730884</v>
+        <v>14.20171409739334</v>
       </c>
       <c r="R7">
-        <v>18.64240549730884</v>
+        <v>127.81542687654</v>
       </c>
       <c r="S7">
-        <v>0.03135137052878209</v>
+        <v>0.01340050743945175</v>
       </c>
       <c r="T7">
-        <v>0.03135137052878209</v>
+        <v>0.01340050743945175</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H8">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J8">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N8">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O8">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P8">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q8">
-        <v>27.40544034689534</v>
+        <v>21.73890120922</v>
       </c>
       <c r="R8">
-        <v>27.40544034689534</v>
+        <v>195.65011088298</v>
       </c>
       <c r="S8">
-        <v>0.04608837174708925</v>
+        <v>0.02051247514080912</v>
       </c>
       <c r="T8">
-        <v>0.04608837174708925</v>
+        <v>0.02051247514080912</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.7291416929397</v>
+        <v>15.07419333333333</v>
       </c>
       <c r="H9">
-        <v>21.7291416929397</v>
+        <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="J9">
-        <v>0.5905109614748162</v>
+        <v>0.3809791902285103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.5884398955062</v>
+        <v>21.232711</v>
       </c>
       <c r="N9">
-        <v>12.5884398955062</v>
+        <v>63.69813300000001</v>
       </c>
       <c r="O9">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="P9">
-        <v>0.7790065323549461</v>
+        <v>0.7927180626278817</v>
       </c>
       <c r="Q9">
-        <v>273.5359941825092</v>
+        <v>320.0659906047933</v>
       </c>
       <c r="R9">
-        <v>273.5359941825092</v>
+        <v>2880.59391544314</v>
       </c>
       <c r="S9">
-        <v>0.4600118964160817</v>
+        <v>0.3020090855794839</v>
       </c>
       <c r="T9">
-        <v>0.4600118964160817</v>
+        <v>0.3020090855794839</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H10">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I10">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J10">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.45199309181384</v>
+        <v>3.167735333333333</v>
       </c>
       <c r="N10">
-        <v>1.45199309181384</v>
+        <v>9.503206</v>
       </c>
       <c r="O10">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="P10">
-        <v>0.08985323938838671</v>
+        <v>0.1182666224938439</v>
       </c>
       <c r="Q10">
-        <v>0.618790806456451</v>
+        <v>75.05395046605889</v>
       </c>
       <c r="R10">
-        <v>0.618790806456451</v>
+        <v>675.4855541945301</v>
       </c>
       <c r="S10">
-        <v>0.001040635011174957</v>
+        <v>0.07081969223456402</v>
       </c>
       <c r="T10">
-        <v>0.001040635011174957</v>
+        <v>0.07081969223456404</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H11">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I11">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J11">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8579448632048911</v>
+        <v>0.9421210000000001</v>
       </c>
       <c r="N11">
-        <v>0.8579448632048911</v>
+        <v>2.826363</v>
       </c>
       <c r="O11">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="P11">
-        <v>0.05309193660094174</v>
+        <v>0.03517385669126484</v>
       </c>
       <c r="Q11">
-        <v>0.3656273551098887</v>
+        <v>22.32190995345167</v>
       </c>
       <c r="R11">
-        <v>0.3656273551098887</v>
+        <v>200.897189581065</v>
       </c>
       <c r="S11">
-        <v>0.0006148840978254366</v>
+        <v>0.0210625927506106</v>
       </c>
       <c r="T11">
-        <v>0.0006148840978254366</v>
+        <v>0.0210625927506106</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.426166494830532</v>
+        <v>23.69325166666667</v>
       </c>
       <c r="H12">
-        <v>0.426166494830532</v>
+        <v>71.07975500000001</v>
       </c>
       <c r="I12">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556568</v>
       </c>
       <c r="J12">
-        <v>0.0115814968748857</v>
+        <v>0.5988138558556569</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.26122976849104</v>
+        <v>1.442127</v>
       </c>
       <c r="N12">
-        <v>1.26122976849104</v>
+        <v>4.326381</v>
       </c>
       <c r="O12">
-        <v>0.07804829165572535</v>
+        <v>0.05384145818700961</v>
       </c>
       <c r="P12">
-        <v>0.07804829165572535</v>
+        <v>0.0538414581870096</v>
       </c>
       <c r="Q12">
-        <v>0.5374938696137499</v>
+        <v>34.168677946295</v>
       </c>
       <c r="R12">
-        <v>0.5374938696137499</v>
+        <v>307.518101516655</v>
       </c>
       <c r="S12">
-        <v>0.0009039160459009508</v>
+        <v>0.03224101118185434</v>
       </c>
       <c r="T12">
-        <v>0.0009039160459009508</v>
+        <v>0.03224101118185435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>23.69325166666667</v>
+      </c>
+      <c r="H13">
+        <v>71.07975500000001</v>
+      </c>
+      <c r="I13">
+        <v>0.5988138558556568</v>
+      </c>
+      <c r="J13">
+        <v>0.5988138558556569</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.232711</v>
+      </c>
+      <c r="N13">
+        <v>63.69813300000001</v>
+      </c>
+      <c r="O13">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="P13">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="Q13">
+        <v>503.0719652886017</v>
+      </c>
+      <c r="R13">
+        <v>4527.647687597416</v>
+      </c>
+      <c r="S13">
+        <v>0.4746905596886279</v>
+      </c>
+      <c r="T13">
+        <v>0.474690559688628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H14">
+        <v>2.072065</v>
+      </c>
+      <c r="I14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J14">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.167735333333333</v>
+      </c>
+      <c r="N14">
+        <v>9.503206</v>
+      </c>
+      <c r="O14">
+        <v>0.1182666224938439</v>
+      </c>
+      <c r="P14">
+        <v>0.1182666224938439</v>
+      </c>
+      <c r="Q14">
+        <v>2.187917837821112</v>
+      </c>
+      <c r="R14">
+        <v>19.69126054039</v>
+      </c>
+      <c r="S14">
+        <v>0.002064483840581779</v>
+      </c>
+      <c r="T14">
+        <v>0.002064483840581779</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H15">
+        <v>2.072065</v>
+      </c>
+      <c r="I15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J15">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9421210000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.826363</v>
+      </c>
+      <c r="O15">
+        <v>0.03517385669126484</v>
+      </c>
+      <c r="P15">
+        <v>0.03517385669126484</v>
+      </c>
+      <c r="Q15">
+        <v>0.6507119832883336</v>
+      </c>
+      <c r="R15">
+        <v>5.856407849595001</v>
+      </c>
+      <c r="S15">
+        <v>0.0006140012897877033</v>
+      </c>
+      <c r="T15">
+        <v>0.0006140012897877033</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="H13">
-        <v>0.426166494830532</v>
-      </c>
-      <c r="I13">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="J13">
-        <v>0.0115814968748857</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>12.5884398955062</v>
-      </c>
-      <c r="N13">
-        <v>12.5884398955062</v>
-      </c>
-      <c r="O13">
-        <v>0.7790065323549461</v>
-      </c>
-      <c r="P13">
-        <v>0.7790065323549461</v>
-      </c>
-      <c r="Q13">
-        <v>5.364771305652706</v>
-      </c>
-      <c r="R13">
-        <v>5.364771305652706</v>
-      </c>
-      <c r="S13">
-        <v>0.009022061719984355</v>
-      </c>
-      <c r="T13">
-        <v>0.009022061719984355</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H16">
+        <v>2.072065</v>
+      </c>
+      <c r="I16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J16">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.442127</v>
+      </c>
+      <c r="N16">
+        <v>4.326381</v>
+      </c>
+      <c r="O16">
+        <v>0.05384145818700961</v>
+      </c>
+      <c r="P16">
+        <v>0.0538414581870096</v>
+      </c>
+      <c r="Q16">
+        <v>0.9960602940850002</v>
+      </c>
+      <c r="R16">
+        <v>8.964542646765</v>
+      </c>
+      <c r="S16">
+        <v>0.0009398663632778283</v>
+      </c>
+      <c r="T16">
+        <v>0.0009398663632778282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.6906883333333335</v>
+      </c>
+      <c r="H17">
+        <v>2.072065</v>
+      </c>
+      <c r="I17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="J17">
+        <v>0.01745618330048481</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>21.232711</v>
+      </c>
+      <c r="N17">
+        <v>63.69813300000001</v>
+      </c>
+      <c r="O17">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="P17">
+        <v>0.7927180626278817</v>
+      </c>
+      <c r="Q17">
+        <v>14.66518577273834</v>
+      </c>
+      <c r="R17">
+        <v>131.986671954645</v>
+      </c>
+      <c r="S17">
+        <v>0.0138378318068375</v>
+      </c>
+      <c r="T17">
+        <v>0.0138378318068375</v>
       </c>
     </row>
   </sheetData>
